--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:27+00:00</t>
+    <t>2024-01-25T17:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-25T17:55:23+00:00</t>
+    <t>2024-01-26T18:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T18:28:41+00:00</t>
+    <t>2024-01-29T09:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T09:55:10+00:00</t>
+    <t>2024-01-29T16:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T16:18:50+00:00</t>
+    <t>2024-01-29T17:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T17:19:23+00:00</t>
+    <t>2024-01-29T18:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:07:49+00:00</t>
+    <t>2024-01-29T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:45:36+00:00</t>
+    <t>2024-01-30T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:03:32+00:00</t>
+    <t>2024-01-30T19:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T19:10:16+00:00</t>
+    <t>2024-01-30T20:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:20:44+00:00</t>
+    <t>2024-01-30T20:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:36:49+00:00</t>
+    <t>2024-01-31T09:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:58:08+00:00</t>
+    <t>2024-01-31T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:01:24+00:00</t>
+    <t>2024-01-31T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T14:52:20+00:00</t>
+    <t>2024-01-31T15:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T15:44:28+00:00</t>
+    <t>2024-01-31T17:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:33:42+00:00</t>
+    <t>2024-01-31T17:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:34:59+00:00</t>
+    <t>2024-01-31T17:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:53:22+00:00</t>
+    <t>2024-02-01T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T09:35:36+00:00</t>
+    <t>2024-02-01T10:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:32:02+00:00</t>
+    <t>2024-02-01T10:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:54:31+00:00</t>
+    <t>2024-02-01T11:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T11:14:35+00:00</t>
+    <t>2024-02-01T13:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T13:00:03+00:00</t>
+    <t>2024-02-01T16:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:21:00+00:00</t>
+    <t>2024-02-01T16:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:42:37+00:00</t>
+    <t>2024-02-01T17:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:08:29+00:00</t>
+    <t>2024-02-01T17:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:43:36+00:00</t>
+    <t>2024-02-01T18:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T18:39:39+00:00</t>
+    <t>2024-02-02T08:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:32:51+00:00</t>
+    <t>2024-02-02T08:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:59:39+00:00</t>
+    <t>2024-02-02T10:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T10:38:11+00:00</t>
+    <t>2024-02-02T13:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T13:56:21+00:00</t>
+    <t>2024-02-02T16:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T16:42:05+00:00</t>
+    <t>2024-02-02T19:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T19:41:48+00:00</t>
+    <t>2024-02-02T21:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T21:16:55+00:00</t>
+    <t>2024-02-02T22:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:06:01+00:00</t>
+    <t>2024-02-02T22:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:50:29+00:00</t>
+    <t>2024-02-02T23:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T23:12:26+00:00</t>
+    <t>2024-02-05T13:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J124-Commune/FHIR/JDV-J124-Commune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -690,7 +690,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.31640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:18:43+00:00</t>
+    <t>2024-02-05T15:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-commune-cog.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:08:12+00:00</t>
+    <t>2024-02-15T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J124-Commune/FHIR/JDV-J124-Commune</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -690,7 +690,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.31640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.66796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
